--- a/ENG/data/event.xlsx
+++ b/ENG/data/event.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ENG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F89EEEE-9E07-4205-9E60-DB36875FFB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FA3A21-A879-4437-8722-AF8D32E4F3BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>President of the Scientific Committee</t>
   </si>
   <si>
-    <t>Online International Congress of Neurosciences: Brain and Behaviour in times of COVID-19</t>
-  </si>
-  <si>
     <t>November 25 ‑ 28, 2020</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>Universidad El Bosque &amp; Universidad de los Andes</t>
+  </si>
+  <si>
+    <t>CIVN2020 - Online International Congress of Neurosciences: Brain and Behaviour in times of COVID-19</t>
   </si>
 </sst>
 </file>
@@ -911,7 +911,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,16 +945,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/ENG/data/event.xlsx
+++ b/ENG/data/event.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ENG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FA3A21-A879-4437-8722-AF8D32E4F3BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D9791-9B7A-439D-B04E-38DF8EE38EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>November 25 ‑ 28, 2020</t>
   </si>
   <si>
-    <t>http://www.civn2020.com/comite_en.php</t>
-  </si>
-  <si>
     <t>https://www.isep.es/congreso2020/#comite</t>
   </si>
   <si>
@@ -65,13 +62,16 @@
   </si>
   <si>
     <t>CIVN2020 - Online International Congress of Neurosciences: Brain and Behaviour in times of COVID-19</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.17605/OSF.IO/5BWNX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +202,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -548,11 +555,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -911,7 +919,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,13 +956,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,5 +987,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>